--- a/Random_IEEE30/IEEE30_Rank_Data.xlsx
+++ b/Random_IEEE30/IEEE30_Rank_Data.xlsx
@@ -47,13 +47,13 @@
     <t>TSO</t>
   </si>
   <si>
-    <t>GA</t>
+    <t>PO</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>CPO</t>
   </si>
   <si>
-    <t>GWO</t>
+    <t>PLO</t>
   </si>
   <si>
     <t>TLBO</t>
@@ -117,8 +117,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
@@ -168,13 +168,13 @@
         <v>793.93357040766114</v>
       </c>
       <c r="D2" s="0">
-        <v>830.40346593325273</v>
+        <v>797.25766043893691</v>
       </c>
       <c r="E2" s="0">
-        <v>800.32854604458976</v>
+        <v>808.61377474199162</v>
       </c>
       <c r="F2" s="0">
-        <v>798.14162735093737</v>
+        <v>804.3530178286577</v>
       </c>
       <c r="G2" s="0">
         <v>801.6179251287906</v>
@@ -197,13 +197,13 @@
         <v>790.02830998784646</v>
       </c>
       <c r="D3" s="0">
-        <v>797.20909713578351</v>
+        <v>791.14143091023186</v>
       </c>
       <c r="E3" s="0">
-        <v>791.19375196996566</v>
+        <v>798.0931045536114</v>
       </c>
       <c r="F3" s="0">
-        <v>791.42817341058981</v>
+        <v>793.3295006937002</v>
       </c>
       <c r="G3" s="0">
         <v>793.36249575253021</v>
@@ -226,13 +226,13 @@
         <v>792.04148192673415</v>
       </c>
       <c r="D4" s="0">
-        <v>807.62129687724018</v>
+        <v>793.74323134815654</v>
       </c>
       <c r="E4" s="0">
-        <v>794.69782984608378</v>
+        <v>801.94936586329482</v>
       </c>
       <c r="F4" s="0">
-        <v>793.7428689965617</v>
+        <v>798.88461270287542</v>
       </c>
       <c r="G4" s="0">
         <v>797.90725493676234</v>
@@ -249,22 +249,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>3.3799999999999999</v>
+        <v>3.3199999999999998</v>
       </c>
       <c r="C5" s="0">
-        <v>3.3599999999999999</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>7.9800000000000004</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E5" s="0">
-        <v>5.6900000000000004</v>
+        <v>7.7699999999999996</v>
       </c>
       <c r="F5" s="0">
-        <v>5.1399999999999997</v>
+        <v>6.79</v>
       </c>
       <c r="G5" s="0">
-        <v>6.9000000000000004</v>
+        <v>6.4100000000000001</v>
       </c>
       <c r="H5" s="0">
         <v>2.54</v>
@@ -307,19 +307,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7" s="0">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C7" s="0">
-        <v>0.54000000000000004</v>
-      </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -344,7 +344,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.99999999999800615</v>
+        <v>0.99999999999994293</v>
       </c>
     </row>
     <row r="10">
@@ -355,7 +355,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.00010374624990805437</v>
       </c>
     </row>
     <row r="11">
@@ -366,7 +366,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>7.2803985062819265e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -377,7 +377,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>1.4341985877797114e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -399,7 +399,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>0.61140447695220801</v>
+        <v>0.75211707070956713</v>
       </c>
     </row>
     <row r="15">
@@ -410,7 +410,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00022861148497432815</v>
+        <v>0.00065480020574881781</v>
       </c>
     </row>
     <row r="16">
@@ -421,7 +421,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1.1593357636452417e-05</v>
       </c>
     </row>
     <row r="17">
@@ -432,7 +432,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0">
-        <v>1.8340884366807586e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -443,7 +443,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>7.703573090545035e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -465,7 +465,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0">
-        <v>0.95218741315180599</v>
+        <v>0.9756730849545715</v>
       </c>
     </row>
     <row r="21">
@@ -476,7 +476,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>0.0020787945196237834</v>
+        <v>0.0041316933975665826</v>
       </c>
     </row>
     <row r="22">
@@ -487,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>1.4828138716893591e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>1.5513310636094957e-09</v>
       </c>
     </row>
     <row r="24">
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>0.028758335191685469</v>
+        <v>2.0749392709573655e-06</v>
       </c>
     </row>
     <row r="25">
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>1.1559513346526273e-09</v>
       </c>
     </row>
     <row r="26">
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>0.97293995887491913</v>
+        <v>0.11223707080048273</v>
       </c>
     </row>
     <row r="28">
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>0.00061085865788701454</v>
+        <v>0.0015326967285171911</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>1.8998389028634932e-07</v>
+        <v>0.99954181609368042</v>
       </c>
     </row>
     <row r="32">
@@ -597,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0">
-        <v>9.9165120559518982e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>0.4279473144721625</v>
+        <v>0.493026282437381</v>
       </c>
     </row>
   </sheetData>
@@ -656,8 +656,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
@@ -707,13 +707,13 @@
         <v>3.0922177871040657</v>
       </c>
       <c r="D2">
-        <v>8.1873524600041083</v>
+        <v>4.2157620533399749</v>
       </c>
       <c r="E2">
-        <v>3.4906551436129374</v>
+        <v>7.6760291926506561</v>
       </c>
       <c r="F2">
-        <v>5.1103139076545361</v>
+        <v>3.9534177784230815</v>
       </c>
       <c r="G2">
         <v>4.4118625813464671</v>
@@ -736,13 +736,13 @@
         <v>1.9032729483619988</v>
       </c>
       <c r="D3">
-        <v>3.2963940680087638</v>
+        <v>2.0537463991259539</v>
       </c>
       <c r="E3">
-        <v>2.0943470855329465</v>
+        <v>2.7120690114040489</v>
       </c>
       <c r="F3">
-        <v>2.147290809649649</v>
+        <v>2.0541139809324362</v>
       </c>
       <c r="G3">
         <v>2.1746467435593817</v>
@@ -765,13 +765,13 @@
         <v>2.4250832084272389</v>
       </c>
       <c r="D4">
-        <v>5.3652070715693325</v>
+        <v>2.9353901662208477</v>
       </c>
       <c r="E4">
-        <v>2.6836801773709982</v>
+        <v>4.8228222598559007</v>
       </c>
       <c r="F4">
-        <v>3.0252682152511796</v>
+        <v>2.958880346370246</v>
       </c>
       <c r="G4">
         <v>3.1062088937720302</v>
@@ -788,28 +788,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.0099999999999998</v>
+        <v>3.9300000000000002</v>
       </c>
       <c r="C5">
-        <v>3.2799999999999998</v>
+        <v>3.1800000000000002</v>
       </c>
       <c r="D5">
-        <v>7.9400000000000004</v>
+        <v>5.4100000000000001</v>
       </c>
       <c r="E5">
-        <v>4.8099999999999996</v>
+        <v>7.7800000000000002</v>
       </c>
       <c r="F5">
-        <v>5.8700000000000001</v>
+        <v>5.6600000000000001</v>
       </c>
       <c r="G5">
-        <v>6.1600000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="H5">
-        <v>2.8100000000000001</v>
+        <v>2.8700000000000001</v>
       </c>
       <c r="I5">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -823,7 +823,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="I6">
-        <v>0.89000000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -846,25 +846,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.40999999999999998</v>
+        <v>0.39000000000000001</v>
       </c>
       <c r="C7">
-        <v>0.57999999999999996</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.050000000000000003</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="H7">
-        <v>0.80000000000000004</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.61396414048580583</v>
+        <v>0.68381626268391194</v>
       </c>
     </row>
     <row r="10">
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.00020593351017228478</v>
       </c>
     </row>
     <row r="11">
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>0.68491585682562206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>3.117390953821797e-06</v>
+        <v>7.2029789661698373e-06</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>1.9909620618818735e-09</v>
+        <v>1.354679479703691e-09</v>
       </c>
     </row>
     <row r="14">
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>0.012468162916870917</v>
+        <v>0.022501995330781122</v>
       </c>
     </row>
     <row r="15">
@@ -949,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>8.0824236192711396e-14</v>
+        <v>1.2123635428906709e-12</v>
       </c>
     </row>
     <row r="16">
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1.7940617880185528e-09</v>
       </c>
     </row>
     <row r="17">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0008284540624509118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>2.9469759965650155e-12</v>
+        <v>1.6478818309906273e-11</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0">
-        <v>0.99392721688915797</v>
+        <v>0.99764701915766085</v>
       </c>
     </row>
     <row r="21">
@@ -1015,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>2.2500946705861224e-07</v>
+        <v>1.0636883069903291e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>4.7157833193978149e-12</v>
       </c>
     </row>
     <row r="23">
@@ -1037,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>2.4320945257727544e-10</v>
+        <v>0.99999999691576313</v>
       </c>
     </row>
     <row r="24">
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>5.4840159235958197e-07</v>
+        <v>0.64566524165806027</v>
       </c>
     </row>
     <row r="25">
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>1.3367085216486885e-13</v>
       </c>
     </row>
     <row r="26">
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>0.030985351278280171</v>
+        <v>5.7361582150861068e-10</v>
       </c>
     </row>
     <row r="28">
@@ -1092,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>0.00022027358926746121</v>
+        <v>3.6364148604528523e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1103,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="0">
-        <v>7.569990504441293e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>0.99922880783434531</v>
+        <v>0.99092551097908355</v>
       </c>
     </row>
     <row r="32">
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>0.00032530225797733348</v>
+        <v>0.00073977231386201936</v>
       </c>
     </row>
   </sheetData>
@@ -1195,9 +1195,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
-    <col min="3" max="3" width="15.08984375" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
+    <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="12.453125" customWidth="true"/>
     <col min="5" max="5" width="12.453125" customWidth="true"/>
     <col min="6" max="6" width="12.453125" customWidth="true"/>
@@ -1246,13 +1246,13 @@
         <v>0.21348605139835586</v>
       </c>
       <c r="D2">
-        <v>0.73099511504115156</v>
+        <v>0.32682864644565224</v>
       </c>
       <c r="E2">
-        <v>0.32763894151673145</v>
+        <v>1.0628178528727454</v>
       </c>
       <c r="F2">
-        <v>0.29975269741512611</v>
+        <v>0.39302448179459271</v>
       </c>
       <c r="G2">
         <v>0.65918139481811822</v>
@@ -1275,13 +1275,13 @@
         <v>0.1325167645641615</v>
       </c>
       <c r="D3">
-        <v>0.26522130821874279</v>
+        <v>0.18041703005911169</v>
       </c>
       <c r="E3">
-        <v>0.18494023077498634</v>
+        <v>0.31730716725144603</v>
       </c>
       <c r="F3">
-        <v>0.17620183400898137</v>
+        <v>0.21997198525335093</v>
       </c>
       <c r="G3">
         <v>0.19712767533450126</v>
@@ -1304,13 +1304,13 @@
         <v>0.17091578953798758</v>
       </c>
       <c r="D4">
-        <v>0.42430126699037629</v>
+        <v>0.24163021119923347</v>
       </c>
       <c r="E4">
-        <v>0.24755775272225888</v>
+        <v>0.55587873618938777</v>
       </c>
       <c r="F4">
-        <v>0.23137449652709738</v>
+        <v>0.30749247449444878</v>
       </c>
       <c r="G4">
         <v>0.34199727993671963</v>
@@ -1327,22 +1327,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.1500000000000004</v>
+        <v>3.9399999999999999</v>
       </c>
       <c r="C5">
-        <v>2.8100000000000001</v>
+        <v>2.79</v>
       </c>
       <c r="D5">
-        <v>7.75</v>
+        <v>5.0700000000000003</v>
       </c>
       <c r="E5">
-        <v>5.6600000000000001</v>
+        <v>7.9299999999999997</v>
       </c>
       <c r="F5">
-        <v>5.29</v>
+        <v>6.2999999999999998</v>
       </c>
       <c r="G5">
-        <v>6.7699999999999996</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="H5">
         <v>2.5299999999999998</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0023053289132355381</v>
+        <v>0.017091196795552044</v>
       </c>
     </row>
     <row r="10">
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.012991502095399454</v>
       </c>
     </row>
     <row r="11">
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>2.778301236749936e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>0.014131730329126846</v>
+        <v>7.9767303873268247e-12</v>
       </c>
     </row>
     <row r="13">
@@ -1466,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>2.0827783941967937e-13</v>
       </c>
     </row>
     <row r="14">
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>5.0764638842903942e-05</v>
+        <v>0.00061756079318897594</v>
       </c>
     </row>
     <row r="15">
@@ -1499,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1.2315748421087847e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>3.4412472871281352e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0">
-        <v>0.99999947048490523</v>
+        <v>0.99999967100045595</v>
       </c>
     </row>
     <row r="21">
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>1.7740892447548617e-05</v>
+        <v>2.0159216230775101e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>8.8696081590455833e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1576,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>3.6060043839825084e-13</v>
+        <v>0.0040063854481738881</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>0.24450326551014512</v>
+        <v>0.00052833894097792378</v>
       </c>
     </row>
     <row r="25">
@@ -1598,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>2.7355895326763857e-13</v>
       </c>
     </row>
     <row r="26">
@@ -1620,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>0.99149637505584587</v>
+        <v>1.6106833912621354e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1631,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0057134173720729819</v>
+        <v>0.00017003105874136004</v>
       </c>
     </row>
     <row r="29">
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>8.1124609786487056e-06</v>
+        <v>0.9999999999994198</v>
       </c>
     </row>
     <row r="32">
@@ -1675,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0">
-        <v>3.1086244689504383e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>0.00095227616503412715</v>
+        <v>0.00098193841313987118</v>
       </c>
     </row>
   </sheetData>
@@ -1734,8 +1734,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
@@ -1785,13 +1785,13 @@
         <v>941.60467986366098</v>
       </c>
       <c r="D2">
-        <v>1089.6458579892414</v>
+        <v>959.14018627207156</v>
       </c>
       <c r="E2">
-        <v>960.57732971510757</v>
+        <v>1028.7940499840824</v>
       </c>
       <c r="F2">
-        <v>962.12122712416351</v>
+        <v>975.88472805794754</v>
       </c>
       <c r="G2">
         <v>990.66328081211475</v>
@@ -1814,13 +1814,13 @@
         <v>912.89408386254308</v>
       </c>
       <c r="D3">
-        <v>951.02793107638763</v>
+        <v>918.89912481914541</v>
       </c>
       <c r="E3">
-        <v>918.47072551964607</v>
+        <v>938.2134632742476</v>
       </c>
       <c r="F3">
-        <v>926.02479252758917</v>
+        <v>915.66672264092949</v>
       </c>
       <c r="G3">
         <v>933.55456843634511</v>
@@ -1843,13 +1843,13 @@
         <v>929.33485935927888</v>
       </c>
       <c r="D4">
-        <v>1003.3746464849356</v>
+        <v>940.81899034775722</v>
       </c>
       <c r="E4">
-        <v>940.86695597269238</v>
+        <v>975.00493441770993</v>
       </c>
       <c r="F4">
-        <v>944.58771282118107</v>
+        <v>949.64755850190329</v>
       </c>
       <c r="G4">
         <v>964.3997205542255</v>
@@ -1866,25 +1866,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.9100000000000001</v>
+        <v>2.8799999999999999</v>
       </c>
       <c r="C5">
-        <v>2.7599999999999998</v>
+        <v>2.77</v>
       </c>
       <c r="D5">
-        <v>7.9400000000000004</v>
+        <v>5.2300000000000004</v>
       </c>
       <c r="E5">
-        <v>5.3499999999999996</v>
+        <v>7.3600000000000003</v>
       </c>
       <c r="F5">
-        <v>5.7199999999999998</v>
+        <v>6.1299999999999999</v>
       </c>
       <c r="G5">
-        <v>6.9299999999999997</v>
+        <v>7.2300000000000004</v>
       </c>
       <c r="H5">
-        <v>3.1400000000000001</v>
+        <v>3.1499999999999999</v>
       </c>
       <c r="I5">
         <v>1.25</v>
@@ -1924,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C7">
         <v>0.77000000000000002</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>2.2681394540313704e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1983,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>7.2789996252708988e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>9.3258734068513149e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2027,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>0.68519060891076766</v>
+        <v>0.72352906944645479</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>9.8788044411435294e-10</v>
       </c>
     </row>
     <row r="17">
@@ -2049,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0">
-        <v>2.7753177533895723e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>3.1086244689504383e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>0.80229830587290496</v>
+        <v>0.82238821718228228</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>2.1791457527342573e-12</v>
       </c>
     </row>
     <row r="23">
@@ -2115,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>3.8515857170295931e-12</v>
+        <v>0.054402605536717163</v>
       </c>
     </row>
     <row r="24">
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>0.047031893623795784</v>
+        <v>1.219634615523546e-09</v>
       </c>
     </row>
     <row r="25">
@@ -2137,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>4.3712855557487273e-09</v>
       </c>
     </row>
     <row r="26">
@@ -2159,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>0.98229619701515525</v>
+        <v>0.00032759578291641223</v>
       </c>
     </row>
     <row r="28">
@@ -2170,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>2.3332379228691025e-07</v>
+        <v>0.99999827945400133</v>
       </c>
     </row>
     <row r="29">
@@ -2181,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="0">
-        <v>1.2920562397766844e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2203,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00056275385566317837</v>
+        <v>0.012917619009501724</v>
       </c>
     </row>
     <row r="32">
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0">
-        <v>1.865174681370263e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2258,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>0.60742033730274536</v>
+        <v>0.63409950019912964</v>
       </c>
     </row>
   </sheetData>
@@ -2273,9 +2273,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
-    <col min="3" max="3" width="15.08984375" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
+    <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
     <col min="6" max="6" width="11.453125" customWidth="true"/>
@@ -2324,13 +2324,13 @@
         <v>807.26445501516912</v>
       </c>
       <c r="D2">
-        <v>876.5342675719188</v>
+        <v>826.95578453767064</v>
       </c>
       <c r="E2">
-        <v>825.19830433377115</v>
+        <v>900.37020492380736</v>
       </c>
       <c r="F2">
-        <v>827.84587359599846</v>
+        <v>850.25832309693999</v>
       </c>
       <c r="G2">
         <v>849.72214308633806</v>
@@ -2353,13 +2353,13 @@
         <v>794.73317902543795</v>
       </c>
       <c r="D3">
-        <v>823.90257005807075</v>
+        <v>806.2115851530931</v>
       </c>
       <c r="E3">
-        <v>800.17666530120391</v>
+        <v>827.18231848796017</v>
       </c>
       <c r="F3">
-        <v>802.97728576430382</v>
+        <v>810.07569793375842</v>
       </c>
       <c r="G3">
         <v>806.86226044108878</v>
@@ -2382,13 +2382,13 @@
         <v>800.54123978965856</v>
       </c>
       <c r="D4">
-        <v>843.64946963644661</v>
+        <v>812.4140751812588</v>
       </c>
       <c r="E4">
-        <v>812.9815002972656</v>
+        <v>862.59810506188285</v>
       </c>
       <c r="F4">
-        <v>813.38520823390968</v>
+        <v>834.55787394361107</v>
       </c>
       <c r="G4">
         <v>829.44036819949429</v>
@@ -2405,25 +2405,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.4700000000000002</v>
+        <v>3.3799999999999999</v>
       </c>
       <c r="C5">
-        <v>2.8300000000000001</v>
+        <v>2.8199999999999998</v>
       </c>
       <c r="D5">
-        <v>7.7999999999999998</v>
+        <v>5.0099999999999998</v>
       </c>
       <c r="E5">
-        <v>5.5199999999999996</v>
+        <v>7.7699999999999996</v>
       </c>
       <c r="F5">
-        <v>5.46</v>
+        <v>6.8099999999999996</v>
       </c>
       <c r="G5">
-        <v>7.04</v>
+        <v>6.3499999999999996</v>
       </c>
       <c r="H5">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I5">
         <v>1.1100000000000001</v>
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.46000000000000002</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="C7">
         <v>0.73999999999999999</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.86936657702936138</v>
+        <v>0.95629379460020125</v>
       </c>
     </row>
     <row r="10">
@@ -2511,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>6.8809614952591858e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2522,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9965686577688757e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2533,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>3.2923472836898782e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2555,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>0.81077616336870162</v>
+        <v>0.92514417451298281</v>
       </c>
     </row>
     <row r="15">
@@ -2566,7 +2566,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>2.3909674240485401e-10</v>
+        <v>1.2657230819002052e-09</v>
       </c>
     </row>
     <row r="16">
@@ -2577,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>3.4023583950215652e-10</v>
       </c>
     </row>
     <row r="17">
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0">
-        <v>1.2434497875801753e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2599,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>3.1086244689504383e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>1.4618354987394611e-05</v>
+        <v>1.8897929413008718e-05</v>
       </c>
     </row>
     <row r="22">
@@ -2643,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>1.6003198766156856e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2654,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>3.7082781290109779e-11</v>
+        <v>1.9885445706746552e-06</v>
       </c>
     </row>
     <row r="24">
@@ -2665,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>0.28217465710078093</v>
+        <v>0.0011683214561896138</v>
       </c>
     </row>
     <row r="25">
@@ -2676,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>1.8657653200193636e-10</v>
       </c>
     </row>
     <row r="26">
@@ -2698,7 +2698,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>0.049333228462682399</v>
       </c>
     </row>
     <row r="28">
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>7.7189236222907631e-05</v>
+        <v>0.00028735934668189245</v>
       </c>
     </row>
     <row r="29">
@@ -2720,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="0">
-        <v>6.2172489379008766e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2742,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00013474769500310124</v>
+        <v>0.99782987254464317</v>
       </c>
     </row>
     <row r="32">
@@ -2753,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0">
-        <v>3.1086244689504383e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2797,7 +2797,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>2.285774620791603e-05</v>
+        <v>2.9381384520799081e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2812,8 +2812,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="5.1796875" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
@@ -2863,13 +2863,13 @@
         <v>899.05494355214591</v>
       </c>
       <c r="D2">
-        <v>1033.978261875988</v>
+        <v>911.40610058935636</v>
       </c>
       <c r="E2">
-        <v>911.80636399796924</v>
+        <v>969.03402857168794</v>
       </c>
       <c r="F2">
-        <v>918.67217921753922</v>
+        <v>921.2126352809986</v>
       </c>
       <c r="G2">
         <v>937.14202903245234</v>
@@ -2892,13 +2892,13 @@
         <v>877.50879361688123</v>
       </c>
       <c r="D3">
-        <v>904.1593239948628</v>
+        <v>882.46332039513265</v>
       </c>
       <c r="E3">
-        <v>880.72660283885318</v>
+        <v>902.67322695352027</v>
       </c>
       <c r="F3">
-        <v>885.28357418192468</v>
+        <v>891.05345360088995</v>
       </c>
       <c r="G3">
         <v>893.38395927160343</v>
@@ -2921,13 +2921,13 @@
         <v>889.24430147717067</v>
       </c>
       <c r="D4">
-        <v>938.25564106438617</v>
+        <v>897.42473048381612</v>
       </c>
       <c r="E4">
-        <v>896.60122566664768</v>
+        <v>941.11213297239146</v>
       </c>
       <c r="F4">
-        <v>899.13399381240595</v>
+        <v>909.60933875473188</v>
       </c>
       <c r="G4">
         <v>914.70502976672788</v>
@@ -2944,22 +2944,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.0300000000000002</v>
+        <v>3.8900000000000001</v>
       </c>
       <c r="C5">
-        <v>2.8399999999999999</v>
+        <v>2.8300000000000001</v>
       </c>
       <c r="D5">
-        <v>7.8700000000000001</v>
+        <v>4.8399999999999999</v>
       </c>
       <c r="E5">
-        <v>5.0599999999999996</v>
+        <v>7.9500000000000002</v>
       </c>
       <c r="F5">
-        <v>5.5999999999999996</v>
+        <v>6.3300000000000001</v>
       </c>
       <c r="G5">
-        <v>7.0099999999999998</v>
+        <v>6.5700000000000003</v>
       </c>
       <c r="H5">
         <v>2.5699999999999998</v>
@@ -3005,13 +3005,13 @@
         <v>0.26000000000000001</v>
       </c>
       <c r="C7">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.019016934213141878</v>
+        <v>0.087609254668731484</v>
       </c>
     </row>
     <row r="10">
@@ -3050,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.1052733667663438</v>
       </c>
     </row>
     <row r="11">
@@ -3061,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>0.12099080399611828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3072,7 +3072,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>0.000278950503069475</v>
+        <v>1.2434497875801753e-14</v>
       </c>
     </row>
     <row r="13">
@@ -3094,7 +3094,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0040361294401448644</v>
+        <v>0.026677919409411666</v>
       </c>
     </row>
     <row r="15">
@@ -3105,7 +3105,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>7.044418192103663e-07</v>
+        <v>1.9844308856931114e-05</v>
       </c>
     </row>
     <row r="16">
@@ -3116,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>1.6265003977000703e-07</v>
       </c>
     </row>
     <row r="17">
@@ -3127,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0">
-        <v>1.3106380314376054e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3138,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0">
-        <v>1.5543122344752192e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3160,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0">
-        <v>0.99999999999999134</v>
+        <v>0.99999999999999967</v>
       </c>
     </row>
     <row r="21">
@@ -3171,7 +3171,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="0">
-        <v>0.56750899358272555</v>
+        <v>0.71314461979051291</v>
       </c>
     </row>
     <row r="22">
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0">
-        <v>1.1501910535116622e-13</v>
+        <v>4.1342256837939573e-06</v>
       </c>
     </row>
     <row r="24">
@@ -3204,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="0">
-        <v>0.12077337071292349</v>
+        <v>1.8963681513994857e-08</v>
       </c>
     </row>
     <row r="25">
@@ -3215,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>1.7789336559381752e-08</v>
       </c>
     </row>
     <row r="26">
@@ -3226,7 +3226,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>1.2745360322696797e-13</v>
       </c>
     </row>
     <row r="27">
@@ -3237,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>0.96543189284815245</v>
+        <v>9.5246756722788817e-06</v>
       </c>
     </row>
     <row r="28">
@@ -3248,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="0">
-        <v>1.1464451610265769e-09</v>
+        <v>0.00080213592771416486</v>
       </c>
     </row>
     <row r="29">
@@ -3259,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="0">
-        <v>9.1117202671853192e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="0">
-        <v>1.4711752531315625e-05</v>
+        <v>0.99999621728158317</v>
       </c>
     </row>
     <row r="32">
@@ -3292,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0">
-        <v>6.2172489379008766e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3336,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="0">
-        <v>0.89210775247734886</v>
+        <v>0.94294139514809527</v>
       </c>
     </row>
   </sheetData>
